--- a/平成27年度 卒業制作-backup01/定義文書/ショッピングサイト表定義.xlsx
+++ b/平成27年度 卒業制作-backup01/定義文書/ショッピングサイト表定義.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10100" windowHeight="5100" tabRatio="825" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21350" windowHeight="4070" tabRatio="825" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="143">
   <si>
     <t>列名</t>
     <rPh sb="0" eb="1">
@@ -940,6 +940,30 @@
   </si>
   <si>
     <t>primary key(member_id,product_id)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>purchase_order_payment_method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払方法　例：代引,クレジットカード</t>
+    <rPh sb="0" eb="2">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ダイビ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3949,10 +3973,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4036,31 +4060,48 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="17">
         <v>10</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="21">
+        <v>20</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B7">
       <formula1>"VARCHAR2,NUMBER,DATE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4073,7 +4114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
